--- a/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>sMAPE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>RRMSE</t>
         </is>
       </c>
     </row>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1044103264727776</v>
+        <v>4.949551832594242</v>
       </c>
       <c r="C2" t="n">
         <v>0.3349214681331832</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2039883046548618</v>
+        <v>0.1274225033939799</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1222134427567031</v>
+        <v>5.922754970661562</v>
       </c>
       <c r="C3" t="n">
         <v>0.3932646006086567</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2969936039651714</v>
+        <v>0.1537506806696583</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1061460604467498</v>
+        <v>5.002056042342206</v>
       </c>
       <c r="C4" t="n">
-        <v>0.340304116334049</v>
+        <v>0.3385605885283036</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4523839122499866</v>
+        <v>0.1279984407655554</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09708312469352064</v>
+        <v>4.615565077850031</v>
       </c>
       <c r="C5" t="n">
         <v>0.3107398963594697</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4233478357623173</v>
+        <v>0.1194375380598404</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.09911648740711003</v>
+        <v>4.719575849479472</v>
       </c>
       <c r="C6" t="n">
         <v>0.3182491753631855</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4310016705713098</v>
+        <v>0.1215968857854682</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1125815098428177</v>
+        <v>5.386948334162604</v>
       </c>
       <c r="C7" t="n">
         <v>0.3652212189274103</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4921249317205621</v>
+        <v>0.1388413623438746</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1209851277421719</v>
+        <v>5.858313082092924</v>
       </c>
       <c r="C8" t="n">
         <v>0.3891241501202219</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5394461535735363</v>
+        <v>0.1521919212901023</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1219082267515042</v>
+        <v>5.909061739079744</v>
       </c>
       <c r="C9" t="n">
         <v>0.3925187158133194</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5429232532028123</v>
+        <v>0.1531729023752228</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.57684650026127</v>
+        <v>56.00873007170907</v>
       </c>
       <c r="C10" t="n">
         <v>11.38775236194824</v>
       </c>
       <c r="D10" t="n">
-        <v>11.38790060615828</v>
+        <v>2.543061226024266</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2055509477369526</v>
+        <v>8.798162884405553</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6477896026941163</v>
+        <v>0.651790779453281</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7788217065589403</v>
+        <v>0.2207189383460916</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.251467846953451</v>
+        <v>10.55118012731415</v>
       </c>
       <c r="C12" t="n">
         <v>0.8043223527185859</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9265476969716404</v>
+        <v>0.2614034287479832</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1983050324657651</v>
+        <v>8.45664126413971</v>
       </c>
       <c r="C13" t="n">
         <v>0.6228611798833477</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7575611253707702</v>
+        <v>0.2137278807182242</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.949551832594242</v>
+        <v>4.949551832562335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3349214681331832</v>
+        <v>0.3349214681311964</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1274225033939799</v>
+        <v>0.1274225033935555</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.922754970661562</v>
+        <v>5.92272762191879</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3932646006086567</v>
+        <v>0.3932635019275451</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1537506806696583</v>
+        <v>0.1537505559508456</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.002056042342206</v>
+        <v>5.002056042432444</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3385605885283036</v>
+        <v>0.3385605885343373</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1279984407655554</v>
+        <v>0.1279984407648803</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.615565077850031</v>
+        <v>4.615561971251562</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3107398963594697</v>
+        <v>0.3107396206446223</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1194375380598404</v>
+        <v>0.1194375703427492</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.719575849479472</v>
+        <v>4.736253335100264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3182491753631855</v>
+        <v>0.3194161273033073</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1215968857854682</v>
+        <v>0.1218309498445792</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.386948334162604</v>
+        <v>5.374107959847639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3652212189274103</v>
+        <v>0.3643048485357486</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1388413623438746</v>
+        <v>0.1384394662899954</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.858313082092924</v>
+        <v>5.859599257559569</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3891241501202219</v>
+        <v>0.3892201191248326</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1521919212901023</v>
+        <v>0.1522167109424173</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.909061739079744</v>
+        <v>5.904496928644733</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3925187158133194</v>
+        <v>0.3922407820439422</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1531729023752228</v>
+        <v>0.1530446016993076</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.00873007170907</v>
+        <v>5.363708606419194</v>
       </c>
       <c r="C10" t="n">
-        <v>11.38775236194824</v>
+        <v>0.4669047839131917</v>
       </c>
       <c r="D10" t="n">
-        <v>2.543061226024266</v>
+        <v>0.1234941320096317</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.798162884405553</v>
+        <v>8.808432703677306</v>
       </c>
       <c r="C11" t="n">
-        <v>0.651790779453281</v>
+        <v>0.6526645828770253</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2207189383460916</v>
+        <v>0.2209712946078185</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.55118012731415</v>
+        <v>9.016822503768887</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8043223527185859</v>
+        <v>0.6704118263035836</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2614034287479832</v>
+        <v>0.2251533104102527</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.45664126413971</v>
+        <v>10.04984643363069</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6228611798833477</v>
+        <v>0.7599055162573095</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2137278807182242</v>
+        <v>0.2488124770894019</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/14 dias à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.808432703677306</v>
+        <v>8.813290098345869</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6526645828770253</v>
+        <v>0.6530680717844557</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2209712946078185</v>
+        <v>0.2209493417278251</v>
       </c>
     </row>
     <row r="12">
